--- a/biology/Botanique/Euphorbe_maculée/Euphorbe_maculée.xlsx
+++ b/biology/Botanique/Euphorbe_maculée/Euphorbe_maculée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Euphorbe_macul%C3%A9e</t>
+          <t>Euphorbe_maculée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia maculata
-L'euphorbe maculée[1] (Euphorbia maculata) est une plante herbacée de la famille des Euphorbiacées.
+L'euphorbe maculée (Euphorbia maculata) est une plante herbacée de la famille des Euphorbiacées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Euphorbe_macul%C3%A9e</t>
+          <t>Euphorbe_maculée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Amérique du Nord, elle se répand en France à partir de l'ouest et du sud-ouest.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Euphorbe_macul%C3%A9e</t>
+          <t>Euphorbe_maculée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle forme des touffes plaquées sur le sol, pouvant atteindre ou dépasser 30 cm de diamètre. Cette plante est toxique et peut provoquer des irritations cutanées. Les taches plus ou moins pourprées généralement visibles sur les feuilles sont parfois absentes, comme sur l'exemplaire montré sur les photos jointes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Euphorbe_macul%C3%A9e</t>
+          <t>Euphorbe_maculée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Autres espèces du genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'autres euphorbes du même groupe peuvent être différenciées par l'étude de la pilosité :
 Capsules entièrement glabres de même que les tiges.
